--- a/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/bauxite_at_hand_cost_to_alumina_china_processing_factors.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/bauxite_at_hand_cost_to_alumina_china_processing_factors.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,9 +529,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="n">
         <v>1</v>
       </c>
@@ -544,9 +542,7 @@
       <c r="E4" t="n">
         <v>12.15</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>0.92</v>
       </c>
@@ -555,9 +551,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>1</v>
       </c>
@@ -570,9 +564,7 @@
       <c r="E5" t="n">
         <v>12.15</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>0.92</v>
       </c>
@@ -581,9 +573,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="n">
         <v>1</v>
       </c>
@@ -596,9 +586,7 @@
       <c r="E6" t="n">
         <v>12.15</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>0.92</v>
       </c>
@@ -607,9 +595,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="n">
         <v>1</v>
       </c>
@@ -622,9 +608,7 @@
       <c r="E7" t="n">
         <v>12.15</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>0.92</v>
       </c>
@@ -633,9 +617,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="n">
         <v>1</v>
       </c>
@@ -648,9 +630,7 @@
       <c r="E8" t="n">
         <v>12.15</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>0.92</v>
       </c>
@@ -659,9 +639,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="n">
         <v>1</v>
       </c>
@@ -674,9 +652,7 @@
       <c r="E9" t="n">
         <v>12.15</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>0.92</v>
       </c>
@@ -685,9 +661,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="n">
         <v>1</v>
       </c>
@@ -700,9 +674,7 @@
       <c r="E10" t="n">
         <v>12.15</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
         <v>0.92</v>
       </c>
@@ -711,9 +683,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="n">
         <v>1</v>
       </c>
@@ -726,9 +696,7 @@
       <c r="E11" t="n">
         <v>12.15</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>0.92</v>
       </c>
@@ -789,9 +757,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="n">
         <v>1</v>
       </c>
@@ -804,9 +770,7 @@
       <c r="E14" t="n">
         <v>12.15</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>0.92</v>
       </c>
@@ -867,9 +831,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="n">
         <v>1</v>
       </c>
@@ -882,9 +844,7 @@
       <c r="E17" t="n">
         <v>12.15</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>0.92</v>
       </c>
@@ -893,9 +853,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="n">
         <v>1</v>
       </c>
@@ -908,9 +866,7 @@
       <c r="E18" t="n">
         <v>12.15</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>0.92</v>
       </c>
@@ -919,9 +875,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="n">
         <v>1</v>
       </c>
@@ -934,9 +888,7 @@
       <c r="E19" t="n">
         <v>12.15</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>0.92</v>
       </c>
@@ -945,9 +897,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="n">
         <v>1</v>
       </c>
@@ -960,9 +910,7 @@
       <c r="E20" t="n">
         <v>12.15</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
         <v>0.92</v>
       </c>
@@ -971,9 +919,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
         <v>1</v>
       </c>
@@ -986,9 +932,7 @@
       <c r="E21" t="n">
         <v>12.15</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>0.92</v>
       </c>
@@ -997,9 +941,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
         <v>1</v>
       </c>
@@ -1012,9 +954,7 @@
       <c r="E22" t="n">
         <v>12.15</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
         <v>0.92</v>
       </c>
@@ -1023,9 +963,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
         <v>1</v>
       </c>
@@ -1038,9 +976,7 @@
       <c r="E23" t="n">
         <v>12.15</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
         <v>0.92</v>
       </c>
@@ -1049,9 +985,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>0</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
         <v>1</v>
       </c>
@@ -1064,9 +998,7 @@
       <c r="E24" t="n">
         <v>12.15</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
         <v>0.92</v>
       </c>
@@ -1101,9 +1033,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>0</v>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="n">
         <v>1</v>
       </c>
@@ -1116,9 +1046,7 @@
       <c r="E26" t="n">
         <v>12.15</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
         <v>0.92</v>
       </c>
@@ -1127,9 +1055,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>0</v>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="n">
         <v>1</v>
       </c>
@@ -1142,9 +1068,7 @@
       <c r="E27" t="n">
         <v>12.15</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
         <v>0.92</v>
       </c>
@@ -1153,9 +1077,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>0</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
         <v>1</v>
       </c>
@@ -1168,9 +1090,7 @@
       <c r="E28" t="n">
         <v>12.15</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
         <v>0.92</v>
       </c>
@@ -1257,9 +1177,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>0</v>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
         <v>1</v>
       </c>
@@ -1272,9 +1190,7 @@
       <c r="E32" t="n">
         <v>12.15</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
         <v>0.92</v>
       </c>
@@ -1283,9 +1199,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>0</v>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="n">
         <v>1</v>
       </c>
@@ -1298,9 +1212,7 @@
       <c r="E33" t="n">
         <v>12.15</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
         <v>0.92</v>
       </c>
@@ -1309,9 +1221,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>0</v>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
         <v>1</v>
       </c>
@@ -1324,9 +1234,7 @@
       <c r="E34" t="n">
         <v>12.15</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
         <v>0.92</v>
       </c>
@@ -1335,9 +1243,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
         <v>1</v>
       </c>
@@ -1350,9 +1256,7 @@
       <c r="E35" t="n">
         <v>12.15</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="n">
         <v>0.92</v>
       </c>
@@ -1361,9 +1265,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0</v>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
         <v>1</v>
       </c>
@@ -1376,9 +1278,7 @@
       <c r="E36" t="n">
         <v>12.15</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
         <v>0.92</v>
       </c>
@@ -1387,9 +1287,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
         <v>1</v>
       </c>
@@ -1402,9 +1300,7 @@
       <c r="E37" t="n">
         <v>12.15</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="n">
         <v>0.92</v>
       </c>
@@ -1413,9 +1309,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>0</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
         <v>1</v>
       </c>
@@ -1428,9 +1322,7 @@
       <c r="E38" t="n">
         <v>12.15</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
         <v>0.92</v>
       </c>
@@ -1439,9 +1331,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
         <v>1</v>
       </c>
@@ -1454,9 +1344,7 @@
       <c r="E39" t="n">
         <v>12.15</v>
       </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
         <v>0.92</v>
       </c>
@@ -1465,9 +1353,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
         <v>1</v>
       </c>
@@ -1480,9 +1366,7 @@
       <c r="E40" t="n">
         <v>12.15</v>
       </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
         <v>0.92</v>
       </c>
@@ -1491,9 +1375,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>0</v>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
         <v>1</v>
       </c>
@@ -1506,9 +1388,7 @@
       <c r="E41" t="n">
         <v>12.15</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
         <v>0.92</v>
       </c>
@@ -1517,9 +1397,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>0</v>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
         <v>1</v>
       </c>
@@ -1532,9 +1410,7 @@
       <c r="E42" t="n">
         <v>12.15</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
         <v>0.92</v>
       </c>
@@ -1543,9 +1419,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>0</v>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
         <v>1</v>
       </c>
@@ -1558,9 +1432,7 @@
       <c r="E43" t="n">
         <v>12.15</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
         <v>0.92</v>
       </c>
@@ -1569,9 +1441,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="n">
         <v>1</v>
       </c>
@@ -1584,9 +1454,7 @@
       <c r="E44" t="n">
         <v>12.15</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
         <v>0.92</v>
       </c>
@@ -1595,9 +1463,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>0</v>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
         <v>1</v>
       </c>
@@ -1610,9 +1476,7 @@
       <c r="E45" t="n">
         <v>12.15</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
         <v>0.92</v>
       </c>
@@ -1621,9 +1485,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>0</v>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
         <v>1</v>
       </c>
@@ -1636,9 +1498,7 @@
       <c r="E46" t="n">
         <v>12.15</v>
       </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
         <v>0.92</v>
       </c>
@@ -1699,9 +1559,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>0</v>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
         <v>1</v>
       </c>
@@ -1714,9 +1572,7 @@
       <c r="E49" t="n">
         <v>12.15</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
         <v>0.92</v>
       </c>
@@ -1725,9 +1581,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>0</v>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
         <v>1</v>
       </c>
@@ -1740,9 +1594,7 @@
       <c r="E50" t="n">
         <v>12.15</v>
       </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
         <v>0.92</v>
       </c>
@@ -1829,9 +1681,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>0</v>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="n">
         <v>1</v>
       </c>
@@ -1844,9 +1694,7 @@
       <c r="E54" t="n">
         <v>12.15</v>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
         <v>0.92</v>
       </c>
@@ -1855,9 +1703,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>0</v>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="n">
         <v>1</v>
       </c>
@@ -1870,9 +1716,7 @@
       <c r="E55" t="n">
         <v>12.15</v>
       </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
         <v>0.92</v>
       </c>
@@ -1881,9 +1725,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>0</v>
-      </c>
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="n">
         <v>1</v>
       </c>
@@ -1896,9 +1738,7 @@
       <c r="E56" t="n">
         <v>12.15</v>
       </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
         <v>0.92</v>
       </c>
@@ -1907,9 +1747,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>0</v>
-      </c>
+      <c r="A57" t="inlineStr"/>
       <c r="B57" t="n">
         <v>1</v>
       </c>
@@ -1922,9 +1760,7 @@
       <c r="E57" t="n">
         <v>12.15</v>
       </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
         <v>0.92</v>
       </c>
@@ -1933,9 +1769,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>0</v>
-      </c>
+      <c r="A58" t="inlineStr"/>
       <c r="B58" t="n">
         <v>1</v>
       </c>
@@ -1948,9 +1782,7 @@
       <c r="E58" t="n">
         <v>12.15</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
         <v>0.92</v>
       </c>
@@ -1959,9 +1791,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>0</v>
-      </c>
+      <c r="A59" t="inlineStr"/>
       <c r="B59" t="n">
         <v>1</v>
       </c>
@@ -1974,9 +1804,7 @@
       <c r="E59" t="n">
         <v>12.15</v>
       </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
         <v>0.92</v>
       </c>
@@ -2141,9 +1969,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>0</v>
-      </c>
+      <c r="A66" t="inlineStr"/>
       <c r="B66" t="n">
         <v>1</v>
       </c>
@@ -2156,9 +1982,7 @@
       <c r="E66" t="n">
         <v>12.15</v>
       </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
         <v>0.92</v>
       </c>
@@ -2167,9 +1991,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>0</v>
-      </c>
+      <c r="A67" t="inlineStr"/>
       <c r="B67" t="n">
         <v>1</v>
       </c>
@@ -2182,9 +2004,7 @@
       <c r="E67" t="n">
         <v>12.15</v>
       </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="n">
         <v>0.92</v>
       </c>
@@ -2427,9 +2247,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>0</v>
-      </c>
+      <c r="A77" t="inlineStr"/>
       <c r="B77" t="n">
         <v>1</v>
       </c>
@@ -2442,9 +2260,7 @@
       <c r="E77" t="n">
         <v>12.15</v>
       </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="n">
         <v>0.92</v>
       </c>
@@ -2479,9 +2295,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>0</v>
-      </c>
+      <c r="A79" t="inlineStr"/>
       <c r="B79" t="n">
         <v>1</v>
       </c>
@@ -2494,9 +2308,7 @@
       <c r="E79" t="n">
         <v>12.15</v>
       </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
         <v>0.92</v>
       </c>
@@ -2531,9 +2343,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>0</v>
-      </c>
+      <c r="A81" t="inlineStr"/>
       <c r="B81" t="n">
         <v>1</v>
       </c>
@@ -2546,9 +2356,7 @@
       <c r="E81" t="n">
         <v>12.15</v>
       </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
         <v>0.92</v>
       </c>
@@ -2557,9 +2365,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>0</v>
-      </c>
+      <c r="A82" t="inlineStr"/>
       <c r="B82" t="n">
         <v>1</v>
       </c>
@@ -2572,9 +2378,7 @@
       <c r="E82" t="n">
         <v>12.15</v>
       </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
         <v>0.92</v>
       </c>
@@ -2583,9 +2387,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>0</v>
-      </c>
+      <c r="A83" t="inlineStr"/>
       <c r="B83" t="n">
         <v>1</v>
       </c>
@@ -2598,9 +2400,7 @@
       <c r="E83" t="n">
         <v>12.15</v>
       </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
         <v>0.92</v>
       </c>
@@ -2661,9 +2461,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>0</v>
-      </c>
+      <c r="A86" t="inlineStr"/>
       <c r="B86" t="n">
         <v>1</v>
       </c>
@@ -2676,9 +2474,7 @@
       <c r="E86" t="n">
         <v>12.15</v>
       </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
         <v>0.92</v>
       </c>
@@ -2687,9 +2483,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
+      <c r="A87" t="inlineStr"/>
       <c r="B87" t="n">
         <v>1</v>
       </c>
@@ -2702,9 +2496,7 @@
       <c r="E87" t="n">
         <v>12.15</v>
       </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="n">
         <v>0.92</v>
       </c>
@@ -2713,9 +2505,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>0</v>
-      </c>
+      <c r="A88" t="inlineStr"/>
       <c r="B88" t="n">
         <v>1</v>
       </c>
@@ -2728,9 +2518,7 @@
       <c r="E88" t="n">
         <v>12.15</v>
       </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
         <v>0.92</v>
       </c>
@@ -2739,9 +2527,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>0</v>
-      </c>
+      <c r="A89" t="inlineStr"/>
       <c r="B89" t="n">
         <v>1</v>
       </c>
@@ -2754,9 +2540,7 @@
       <c r="E89" t="n">
         <v>12.15</v>
       </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
         <v>0.92</v>
       </c>
@@ -2765,9 +2549,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>0</v>
-      </c>
+      <c r="A90" t="inlineStr"/>
       <c r="B90" t="n">
         <v>1</v>
       </c>
@@ -2780,9 +2562,7 @@
       <c r="E90" t="n">
         <v>12.15</v>
       </c>
-      <c r="F90" t="n">
-        <v>0</v>
-      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="n">
         <v>0.92</v>
       </c>
@@ -2791,9 +2571,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
+      <c r="A91" t="inlineStr"/>
       <c r="B91" t="n">
         <v>1</v>
       </c>
@@ -2806,9 +2584,7 @@
       <c r="E91" t="n">
         <v>12.15</v>
       </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
         <v>0.92</v>
       </c>
@@ -2817,9 +2593,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>0</v>
-      </c>
+      <c r="A92" t="inlineStr"/>
       <c r="B92" t="n">
         <v>1</v>
       </c>
@@ -2832,9 +2606,7 @@
       <c r="E92" t="n">
         <v>12.15</v>
       </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
         <v>0.92</v>
       </c>
@@ -2843,9 +2615,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>0</v>
-      </c>
+      <c r="A93" t="inlineStr"/>
       <c r="B93" t="n">
         <v>1</v>
       </c>
@@ -2858,9 +2628,7 @@
       <c r="E93" t="n">
         <v>12.15</v>
       </c>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
         <v>0.92</v>
       </c>
@@ -2869,9 +2637,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>0</v>
-      </c>
+      <c r="A94" t="inlineStr"/>
       <c r="B94" t="n">
         <v>1</v>
       </c>
@@ -2884,9 +2650,7 @@
       <c r="E94" t="n">
         <v>12.15</v>
       </c>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="n">
         <v>0.92</v>
       </c>
@@ -2895,9 +2659,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>0</v>
-      </c>
+      <c r="A95" t="inlineStr"/>
       <c r="B95" t="n">
         <v>1</v>
       </c>
@@ -2910,13 +2672,33 @@
       <c r="E95" t="n">
         <v>12.15</v>
       </c>
-      <c r="F95" t="n">
-        <v>0</v>
-      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
         <v>0.92</v>
       </c>
       <c r="H95" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E96" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.035</v>
       </c>
     </row>
